--- a/biology/Zoologie/Formation_d'Arén/Formation_d'Arén.xlsx
+++ b/biology/Zoologie/Formation_d'Arén/Formation_d'Arén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Ar%C3%A9n</t>
+          <t>Formation_d'Arén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation d'Arén, ou formation de Grès d'Arén (Aren Sandstone Formation en anglais), est une formation géologique située sur la commune d'Arén, comarque de la Ribagorce, province de Huesca, Aragon, dans le Nord de l'Espagne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Ar%C3%A9n</t>
+          <t>Formation_d'Arén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Formation_d%27Ar%C3%A9n</t>
+          <t>Formation_d'Arén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Dinosaures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On y a retrouvé des œufs de dinosaures, des traces de sauropodes, des restes de sauropodes, des traces de théropodes, des traces d'ornithopodes et un iguanodonte.
 </t>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Formation_d%27Ar%C3%A9n</t>
+          <t>Formation_d'Arén</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Tableau synthétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stratigraphie du bassin de Tremp:
 </t>
